--- a/tables/industrial_production_volume_at_current_prices.xlsx
+++ b/tables/industrial_production_volume_at_current_prices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Регионы (млн тенге)</t>
   </si>
@@ -81,32 +81,336 @@
     <t>г.Шымкент</t>
   </si>
   <si>
-    <t>2019г</t>
-  </si>
-  <si>
-    <t>2020г</t>
-  </si>
-  <si>
-    <t>2021г</t>
-  </si>
-  <si>
-    <t>РеспубликаКазахстан</t>
-  </si>
-  <si>
-    <t>г.Астана</t>
-  </si>
-  <si>
-    <t>г.Алматы</t>
-  </si>
-  <si>
-    <t>2023 г.  (янв.-июнь)</t>
+    <t>2019 г</t>
+  </si>
+  <si>
+    <t>2020 г</t>
+  </si>
+  <si>
+    <t>2021 г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 г. </t>
+  </si>
+  <si>
+    <t>(янв.-июнь)</t>
+  </si>
+  <si>
+    <t>Республика Казахстан</t>
+  </si>
+  <si>
+    <t>29 380 342</t>
+  </si>
+  <si>
+    <t>27 028 506</t>
+  </si>
+  <si>
+    <t>37 606 243</t>
+  </si>
+  <si>
+    <t>48 007 481</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>22 611 869</t>
+    </r>
+  </si>
+  <si>
+    <t>1 180 184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  673 656</t>
+  </si>
+  <si>
+    <t>791 162</t>
+  </si>
+  <si>
+    <t>1 040 511</t>
+  </si>
+  <si>
+    <t>1 138 936</t>
+  </si>
+  <si>
+    <t>1 482 652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  832 471</t>
+  </si>
+  <si>
+    <t>1 856 761</t>
+  </si>
+  <si>
+    <t>1 595 500</t>
+  </si>
+  <si>
+    <t>2 247 442</t>
+  </si>
+  <si>
+    <t>2 779 829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 162 166</t>
+  </si>
+  <si>
+    <t>1 009 815</t>
+  </si>
+  <si>
+    <t>1 246 533</t>
+  </si>
+  <si>
+    <t>1 500 790</t>
+  </si>
+  <si>
+    <t>1 589 351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  855 053</t>
+  </si>
+  <si>
+    <t>7 888 134</t>
+  </si>
+  <si>
+    <t>5 174 828</t>
+  </si>
+  <si>
+    <t>8 557 592</t>
+  </si>
+  <si>
+    <t>13 133 748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 436 123</t>
+  </si>
+  <si>
+    <t>2 392 109</t>
+  </si>
+  <si>
+    <t>1 822 866</t>
+  </si>
+  <si>
+    <t>2 843 130</t>
+  </si>
+  <si>
+    <t>3 912 853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 623 778</t>
+  </si>
+  <si>
+    <t>476 971</t>
+  </si>
+  <si>
+    <t>518 244</t>
+  </si>
+  <si>
+    <t>639 111</t>
+  </si>
+  <si>
+    <t>859 766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  439 001</t>
+  </si>
+  <si>
+    <t>281 261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  152 377</t>
+  </si>
+  <si>
+    <t>2 620 992</t>
+  </si>
+  <si>
+    <t>2 965 670</t>
+  </si>
+  <si>
+    <t>4 353 606</t>
+  </si>
+  <si>
+    <t>3 841 899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 686 113</t>
+  </si>
+  <si>
+    <t>1 206 983</t>
+  </si>
+  <si>
+    <t>1 541 948</t>
+  </si>
+  <si>
+    <t>2 333 110</t>
+  </si>
+  <si>
+    <t>2 441 274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 326 945</t>
+  </si>
+  <si>
+    <t>852 147</t>
+  </si>
+  <si>
+    <t>653 270</t>
+  </si>
+  <si>
+    <t>808 580</t>
+  </si>
+  <si>
+    <t>1 031 399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  497 154</t>
+  </si>
+  <si>
+    <t>2 908 789</t>
+  </si>
+  <si>
+    <t>2 156 452</t>
+  </si>
+  <si>
+    <t>2 726 724</t>
+  </si>
+  <si>
+    <t>3 111 690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 352 022</t>
+  </si>
+  <si>
+    <t>1 988 958</t>
+  </si>
+  <si>
+    <t>2 117 002</t>
+  </si>
+  <si>
+    <t>2 783 336</t>
+  </si>
+  <si>
+    <t>3 191 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 545 555</t>
+  </si>
+  <si>
+    <t>263 576</t>
+  </si>
+  <si>
+    <t>315 516</t>
+  </si>
+  <si>
+    <t>394 666</t>
+  </si>
+  <si>
+    <t>489 726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  280 510</t>
+  </si>
+  <si>
+    <t>504 954</t>
+  </si>
+  <si>
+    <t>543 185</t>
+  </si>
+  <si>
+    <t>738 265</t>
+  </si>
+  <si>
+    <t>866 590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  446 010</t>
+  </si>
+  <si>
+    <t>1 056 033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  563 814</t>
+  </si>
+  <si>
+    <t>2 153 903</t>
+  </si>
+  <si>
+    <t>2 400 351</t>
+  </si>
+  <si>
+    <t>2 763 416</t>
+  </si>
+  <si>
+    <t>2 194 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 219 892</t>
+  </si>
+  <si>
+    <t>г. Астана</t>
+  </si>
+  <si>
+    <t>884 345</t>
+  </si>
+  <si>
+    <t>1 184 456</t>
+  </si>
+  <si>
+    <t>1 543 914</t>
+  </si>
+  <si>
+    <t>1 909 747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 041 501</t>
+  </si>
+  <si>
+    <t>г. Алматы</t>
+  </si>
+  <si>
+    <t>1 001 188</t>
+  </si>
+  <si>
+    <t>1 081 643</t>
+  </si>
+  <si>
+    <t>1 420 751</t>
+  </si>
+  <si>
+    <t>1 717 327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  979 427</t>
+  </si>
+  <si>
+    <t>579 555</t>
+  </si>
+  <si>
+    <t>670 531</t>
+  </si>
+  <si>
+    <t>812 874</t>
+  </si>
+  <si>
+    <t>936 986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  498 299</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,18 +421,43 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,12 +466,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF538235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,41 +545,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,444 +910,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="26.45" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2">
-        <v>29380342</v>
-      </c>
-      <c r="C2" s="2">
-        <v>27028506</v>
-      </c>
-      <c r="D2" s="2">
-        <v>37606243</v>
-      </c>
-      <c r="E2" s="2">
-        <v>48007481</v>
-      </c>
-      <c r="F2" s="2">
-        <v>22611869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>1180184</v>
-      </c>
-      <c r="F3" s="5">
-        <v>673656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" thickBot="1">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>791162</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1040511</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1138936</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1482652</v>
-      </c>
-      <c r="F4" s="5">
-        <v>832471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1856761</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1595500</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2247442</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2779829</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1162166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" thickBot="1">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>1009815</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1246533</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1500790</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1589351</v>
-      </c>
-      <c r="F6" s="5">
-        <v>855053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>7888134</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5174828</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8557592</v>
-      </c>
-      <c r="E7" s="5">
-        <v>13133748</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5436123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.799999999999997" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>2392109</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1822866</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2843130</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3912853</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1623778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>476971</v>
-      </c>
-      <c r="C9" s="6">
-        <v>518244</v>
-      </c>
-      <c r="D9" s="5">
-        <v>639111</v>
-      </c>
-      <c r="E9" s="5">
-        <v>859766</v>
-      </c>
-      <c r="F9" s="5">
-        <v>439001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
-        <v>281261</v>
-      </c>
-      <c r="F10" s="5">
-        <v>152377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>2620992</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2965670</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4353606</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3841899</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1686113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" thickBot="1">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>1206983</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1541948</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2333110</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2441274</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1326945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>852147</v>
-      </c>
-      <c r="C13" s="6">
-        <v>653270</v>
-      </c>
-      <c r="D13" s="5">
-        <v>808580</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1031399</v>
-      </c>
-      <c r="F13" s="5">
-        <v>497154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" thickBot="1">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>2908789</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2156452</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2726724</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3111690</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1352022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>1988958</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2117002</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2783336</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3191001</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1545555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.799999999999997" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>263576</v>
-      </c>
-      <c r="C16" s="6">
-        <v>315516</v>
-      </c>
-      <c r="D16" s="5">
-        <v>394666</v>
-      </c>
-      <c r="E16" s="5">
-        <v>489726</v>
-      </c>
-      <c r="F16" s="5">
-        <v>280510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>504954</v>
-      </c>
-      <c r="C17" s="6">
-        <v>543185</v>
-      </c>
-      <c r="D17" s="5">
-        <v>738265</v>
-      </c>
-      <c r="E17" s="5">
-        <v>866590</v>
-      </c>
-      <c r="F17" s="5">
-        <v>446010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" thickBot="1">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5">
-        <v>1056033</v>
-      </c>
-      <c r="F18" s="5">
-        <v>563814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>2153903</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2400351</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2763416</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2194164</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1219892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6">
-        <v>884345</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1184456</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1543914</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1909747</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1041501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1001188</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1081643</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1420751</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1717327</v>
-      </c>
-      <c r="F21" s="5">
-        <v>979427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" thickBot="1">
+      <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
-        <v>579555</v>
-      </c>
-      <c r="C22" s="6">
-        <v>670531</v>
-      </c>
-      <c r="D22" s="5">
-        <v>812874</v>
-      </c>
-      <c r="E22" s="5">
-        <v>936986</v>
-      </c>
-      <c r="F22" s="5">
-        <v>498299</v>
+      <c r="B23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
